--- a/biology/Médecine/Score_ASA/Score_ASA.xlsx
+++ b/biology/Médecine/Score_ASA/Score_ASA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le score ASA, ou Physical status score, a été mis au point 1941 par la société américaine des anesthésistes American Society of Anesthesiologists (ASA). Il est utilisé en médecine pour exprimer l’état de santé pré-opératoire d'un patient.
 Il permet d'évaluer le risque anesthésique et d'obtenir un paramètre prédictif de mortalité et morbidité péri-opératoire. Son utilisation offre également la possibilité d'étudier et de déterminer les facteurs interférant dans l'infection post-opératoire (IPO) et les principes de prévention. Allant de 1 à 6, c'est un indicateur de la probabilité de mortalité péri-opératoire globale. Si ce score est supérieur ou égal à 3, il est considéré comme un facteur de risque anesthésique et pour les IPO.
